--- a/mobi_client/mobi_client/mobi_config/excel/体力购买表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/体力购买表.xlsx
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C6" s="7">
         <v>100</v>
@@ -1177,66 +1177,36 @@
         <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C8" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="1:3">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7">
-        <v>200</v>
-      </c>
-      <c r="C9" s="7">
-        <v>100</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" ht="13.5" spans="1:3">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7">
-        <v>200</v>
-      </c>
-      <c r="C10" s="7">
-        <v>100</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" ht="13.5" spans="1:3">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7">
-        <v>300</v>
-      </c>
-      <c r="C11" s="7">
-        <v>100</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" ht="13.5" spans="1:3">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7">
-        <v>400</v>
-      </c>
-      <c r="C12" s="7">
-        <v>100</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" ht="13.5" spans="1:3">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7">
-        <v>500</v>
-      </c>
-      <c r="C13" s="7">
-        <v>100</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" ht="13.5" spans="1:1">
       <c r="A14" s="7"/>

--- a/mobi_client/mobi_client/mobi_config/excel/体力购买表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/体力购买表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="25140"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="buystamina|(体力购买表)" sheetId="1" r:id="rId1"/>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="2"/>
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C6" s="7">
         <v>100</v>
@@ -1177,36 +1177,66 @@
         <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C8" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="1:3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>200</v>
+      </c>
+      <c r="C9" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" ht="13.5" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>200</v>
+      </c>
+      <c r="C10" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" ht="13.5" spans="1:3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>400</v>
+      </c>
+      <c r="C11" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" ht="13.5" spans="1:3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>400</v>
+      </c>
+      <c r="C12" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" ht="13.5" spans="1:3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>500</v>
+      </c>
+      <c r="C13" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" ht="13.5" spans="1:1">
       <c r="A14" s="7"/>
